--- a/instruction_set.xlsx
+++ b/instruction_set.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claudio\OneDrive - Universita degli Studi di Udine\Università\UniUd-LM\Anno 2019-2020\Digital system electronics\Laboratorio\MIPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniud-my.sharepoint.com/personal/134422_aulecsit_uniud_it/Documents/Università/UniUd-LM/Anno 2019-2020/Digital system electronics/Laboratorio/dse_mips/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C08105-515D-418A-9418-E52D9105ECA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{E9C08105-515D-418A-9418-E52D9105ECA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{423EB14F-58F6-46EF-9529-3C4571A1AE40}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="110">
   <si>
     <t>INSTRUCTION SET MIPS</t>
   </si>
@@ -102,9 +101,6 @@
     <t>Func</t>
   </si>
   <si>
-    <t>JUMP</t>
-  </si>
-  <si>
     <t>AND</t>
   </si>
   <si>
@@ -219,9 +215,6 @@
     <t>NOP</t>
   </si>
   <si>
-    <t>001101</t>
-  </si>
-  <si>
     <t>0000</t>
   </si>
   <si>
@@ -309,9 +302,6 @@
     <t>if (rs &lt; imm) rt = 1 else rt = 0</t>
   </si>
   <si>
-    <t>rt = mem(rs + imm)</t>
-  </si>
-  <si>
     <t>mem(rs + imm) = rt</t>
   </si>
   <si>
@@ -330,9 +320,6 @@
     <t>Instruction-description</t>
   </si>
   <si>
-    <t>NB: no hazard control</t>
-  </si>
-  <si>
     <t>rd = rt &lt;&lt; shamdt</t>
   </si>
   <si>
@@ -367,6 +354,15 @@
   </si>
   <si>
     <t>BranchNE**</t>
+  </si>
+  <si>
+    <t>DC ***</t>
+  </si>
+  <si>
+    <t>*** settato a 1 in modo che la forwarding unit funzioni facilmente sfruttando ResDst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt = mem(rs + imm)   </t>
   </si>
 </sst>
 </file>
@@ -577,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -586,9 +582,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -680,11 +673,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -987,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:U37"/>
+  <dimension ref="A2:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,188 +997,186 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+        <v>43</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
+        <v>44</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
+        <v>45</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51" t="s">
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51" t="s">
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="51"/>
-      <c r="T9" s="43" t="s">
-        <v>97</v>
+      <c r="S9" s="48"/>
+      <c r="T9" s="41" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="J10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="50" t="s">
+      <c r="L10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="N10" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="R10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="S10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T10" s="43" t="s">
-        <v>98</v>
-      </c>
+      <c r="T10" s="41"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="48" t="s">
+      <c r="L11" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="N11" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="O11" s="9">
-        <v>0</v>
-      </c>
-      <c r="P11" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>0</v>
-      </c>
-      <c r="R11" s="20">
-        <v>0</v>
-      </c>
-      <c r="S11" s="11">
-        <v>0</v>
-      </c>
-      <c r="T11" s="32" t="s">
-        <v>95</v>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>0</v>
+      </c>
+      <c r="R11" s="19">
+        <v>0</v>
+      </c>
+      <c r="S11" s="10">
+        <v>0</v>
+      </c>
+      <c r="T11" s="31" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1197,117 +1184,117 @@
         <f>A11+1</f>
         <v>2</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="23" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="21">
-        <v>0</v>
-      </c>
-      <c r="I12" s="13">
-        <v>1</v>
-      </c>
-      <c r="J12" s="13">
-        <v>0</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="46" t="s">
+      <c r="G12" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="20">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="N12" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="N12" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="O12" s="20">
-        <v>0</v>
-      </c>
-      <c r="P12" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>0</v>
-      </c>
-      <c r="R12" s="20">
-        <v>0</v>
-      </c>
-      <c r="S12" s="9">
-        <v>1</v>
-      </c>
-      <c r="T12" s="32" t="s">
-        <v>99</v>
+      <c r="O12" s="19">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0</v>
+      </c>
+      <c r="R12" s="19">
+        <v>0</v>
+      </c>
+      <c r="S12" s="8">
+        <v>1</v>
+      </c>
+      <c r="T12" s="31" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" ref="A13:A32" si="0">A12+1</f>
+        <f t="shared" ref="A13:A31" si="0">A12+1</f>
         <v>3</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="21">
-        <v>0</v>
-      </c>
-      <c r="I13" s="13">
-        <v>1</v>
-      </c>
-      <c r="J13" s="13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="M13" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="N13" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="O13" s="21">
-        <v>0</v>
-      </c>
-      <c r="P13" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="13">
-        <v>0</v>
-      </c>
-      <c r="R13" s="21">
-        <v>0</v>
-      </c>
-      <c r="S13" s="13">
-        <v>1</v>
-      </c>
-      <c r="T13" s="33" t="s">
-        <v>100</v>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="20">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="N13" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="O13" s="20">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>0</v>
+      </c>
+      <c r="R13" s="20">
+        <v>0</v>
+      </c>
+      <c r="S13" s="12">
+        <v>1</v>
+      </c>
+      <c r="T13" s="32" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1315,58 +1302,58 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="21">
-        <v>0</v>
-      </c>
-      <c r="I14" s="13">
-        <v>1</v>
-      </c>
-      <c r="J14" s="13">
-        <v>0</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="14" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="20">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="N14" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="N14" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="O14" s="21">
-        <v>0</v>
-      </c>
-      <c r="P14" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="13">
-        <v>0</v>
-      </c>
-      <c r="R14" s="21">
-        <v>0</v>
-      </c>
-      <c r="S14" s="13">
-        <v>1</v>
-      </c>
-      <c r="T14" s="33" t="s">
-        <v>78</v>
+      <c r="O14" s="20">
+        <v>0</v>
+      </c>
+      <c r="P14" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>0</v>
+      </c>
+      <c r="R14" s="20">
+        <v>0</v>
+      </c>
+      <c r="S14" s="12">
+        <v>1</v>
+      </c>
+      <c r="T14" s="32" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1374,58 +1361,58 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="21">
-        <v>0</v>
-      </c>
-      <c r="I15" s="13">
-        <v>1</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14" t="s">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="20">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <v>1</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="L15" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="N15" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="N15" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="O15" s="21">
-        <v>0</v>
-      </c>
-      <c r="P15" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="13">
-        <v>0</v>
-      </c>
-      <c r="R15" s="21">
-        <v>0</v>
-      </c>
-      <c r="S15" s="13">
-        <v>1</v>
-      </c>
-      <c r="T15" s="33" t="s">
-        <v>79</v>
+      <c r="O15" s="20">
+        <v>0</v>
+      </c>
+      <c r="P15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>0</v>
+      </c>
+      <c r="R15" s="20">
+        <v>0</v>
+      </c>
+      <c r="S15" s="12">
+        <v>1</v>
+      </c>
+      <c r="T15" s="32" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -1433,58 +1420,58 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="21">
-        <v>0</v>
-      </c>
-      <c r="I16" s="13">
-        <v>1</v>
-      </c>
-      <c r="J16" s="13">
-        <v>0</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16" s="14" t="s">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="20">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <v>1</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="N16" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="N16" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="O16" s="21">
-        <v>0</v>
-      </c>
-      <c r="P16" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>0</v>
-      </c>
-      <c r="R16" s="21">
-        <v>0</v>
-      </c>
-      <c r="S16" s="13">
-        <v>1</v>
-      </c>
-      <c r="T16" s="33" t="s">
-        <v>80</v>
+      <c r="O16" s="20">
+        <v>0</v>
+      </c>
+      <c r="P16" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>0</v>
+      </c>
+      <c r="R16" s="20">
+        <v>0</v>
+      </c>
+      <c r="S16" s="12">
+        <v>1</v>
+      </c>
+      <c r="T16" s="32" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -1492,58 +1479,58 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="21">
-        <v>0</v>
-      </c>
-      <c r="I17" s="13">
-        <v>1</v>
-      </c>
-      <c r="J17" s="13">
-        <v>0</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17" s="14" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="20">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>1</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="N17" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="N17" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="O17" s="21">
-        <v>0</v>
-      </c>
-      <c r="P17" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="13">
-        <v>0</v>
-      </c>
-      <c r="R17" s="21">
-        <v>0</v>
-      </c>
-      <c r="S17" s="13">
-        <v>1</v>
-      </c>
-      <c r="T17" s="33" t="s">
-        <v>81</v>
+      <c r="O17" s="20">
+        <v>0</v>
+      </c>
+      <c r="P17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>0</v>
+      </c>
+      <c r="R17" s="20">
+        <v>0</v>
+      </c>
+      <c r="S17" s="12">
+        <v>1</v>
+      </c>
+      <c r="T17" s="32" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -1551,58 +1538,58 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="21">
-        <v>0</v>
-      </c>
-      <c r="I18" s="13">
-        <v>1</v>
-      </c>
-      <c r="J18" s="13">
-        <v>0</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="M18" s="14" t="s">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="20">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
+        <v>1</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="N18" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="N18" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="O18" s="21">
-        <v>0</v>
-      </c>
-      <c r="P18" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="13">
-        <v>0</v>
-      </c>
-      <c r="R18" s="21">
-        <v>0</v>
-      </c>
-      <c r="S18" s="13">
-        <v>1</v>
-      </c>
-      <c r="T18" s="33" t="s">
-        <v>82</v>
+      <c r="O18" s="20">
+        <v>0</v>
+      </c>
+      <c r="P18" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>0</v>
+      </c>
+      <c r="R18" s="20">
+        <v>0</v>
+      </c>
+      <c r="S18" s="12">
+        <v>1</v>
+      </c>
+      <c r="T18" s="32" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -1610,58 +1597,58 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="21" t="s">
+      <c r="B19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="21">
-        <v>0</v>
-      </c>
-      <c r="I19" s="13">
-        <v>1</v>
-      </c>
-      <c r="J19" s="13">
-        <v>0</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="M19" s="14" t="s">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="20">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <v>1</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="N19" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="N19" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="O19" s="21">
-        <v>0</v>
-      </c>
-      <c r="P19" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="13">
-        <v>0</v>
-      </c>
-      <c r="R19" s="21">
-        <v>0</v>
-      </c>
-      <c r="S19" s="13">
-        <v>1</v>
-      </c>
-      <c r="T19" s="33" t="s">
-        <v>80</v>
+      <c r="O19" s="20">
+        <v>0</v>
+      </c>
+      <c r="P19" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>0</v>
+      </c>
+      <c r="R19" s="20">
+        <v>0</v>
+      </c>
+      <c r="S19" s="12">
+        <v>1</v>
+      </c>
+      <c r="T19" s="32" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -1669,118 +1656,118 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="40">
-        <v>0</v>
-      </c>
-      <c r="I20" s="39">
-        <v>1</v>
-      </c>
-      <c r="J20" s="39">
-        <v>0</v>
-      </c>
-      <c r="K20" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M20" s="14" t="s">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="39">
+        <v>0</v>
+      </c>
+      <c r="I20" s="38">
+        <v>1</v>
+      </c>
+      <c r="J20" s="38">
+        <v>0</v>
+      </c>
+      <c r="K20" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="N20" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="N20" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="O20" s="21">
-        <v>0</v>
-      </c>
-      <c r="P20" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="13">
-        <v>0</v>
-      </c>
-      <c r="R20" s="21">
-        <v>0</v>
-      </c>
-      <c r="S20" s="13">
-        <v>1</v>
-      </c>
-      <c r="T20" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="U20" s="31"/>
+      <c r="O20" s="20">
+        <v>0</v>
+      </c>
+      <c r="P20" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>0</v>
+      </c>
+      <c r="R20" s="20">
+        <v>0</v>
+      </c>
+      <c r="S20" s="12">
+        <v>1</v>
+      </c>
+      <c r="T20" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="U20" s="30"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="13" t="s">
+      <c r="B21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="21">
-        <v>1</v>
-      </c>
-      <c r="I21" s="13">
-        <v>0</v>
-      </c>
-      <c r="J21" s="13">
-        <v>0</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="M21" s="14" t="s">
+      <c r="E21" s="12"/>
+      <c r="F21" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="20">
+        <v>1</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="N21" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="N21" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="O21" s="21">
-        <v>0</v>
-      </c>
-      <c r="P21" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="13">
-        <v>0</v>
-      </c>
-      <c r="R21" s="21">
-        <v>0</v>
-      </c>
-      <c r="S21" s="13">
-        <v>1</v>
-      </c>
-      <c r="T21" s="35" t="s">
-        <v>84</v>
+      <c r="O21" s="20">
+        <v>0</v>
+      </c>
+      <c r="P21" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="12">
+        <v>0</v>
+      </c>
+      <c r="R21" s="20">
+        <v>0</v>
+      </c>
+      <c r="S21" s="12">
+        <v>1</v>
+      </c>
+      <c r="T21" s="34" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -1788,58 +1775,58 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="13" t="s">
+      <c r="B22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="21">
-        <v>1</v>
-      </c>
-      <c r="I22" s="13">
-        <v>0</v>
-      </c>
-      <c r="J22" s="13">
-        <v>0</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M22" s="14" t="s">
+      <c r="E22" s="12"/>
+      <c r="F22" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="20">
+        <v>1</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="N22" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="N22" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="O22" s="21">
-        <v>0</v>
-      </c>
-      <c r="P22" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="13">
-        <v>0</v>
-      </c>
-      <c r="R22" s="21">
-        <v>0</v>
-      </c>
-      <c r="S22" s="13">
-        <v>1</v>
-      </c>
-      <c r="T22" s="35" t="s">
-        <v>85</v>
+      <c r="O22" s="20">
+        <v>0</v>
+      </c>
+      <c r="P22" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>0</v>
+      </c>
+      <c r="R22" s="20">
+        <v>0</v>
+      </c>
+      <c r="S22" s="12">
+        <v>1</v>
+      </c>
+      <c r="T22" s="34" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -1847,58 +1834,58 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="13" t="s">
+      <c r="B23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="21">
-        <v>1</v>
-      </c>
-      <c r="I23" s="13">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="M23" s="14" t="s">
+      <c r="E23" s="12"/>
+      <c r="F23" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="20">
+        <v>1</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="N23" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="N23" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="O23" s="21">
-        <v>0</v>
-      </c>
-      <c r="P23" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="13">
-        <v>0</v>
-      </c>
-      <c r="R23" s="21">
-        <v>0</v>
-      </c>
-      <c r="S23" s="13">
-        <v>1</v>
-      </c>
-      <c r="T23" s="35" t="s">
-        <v>86</v>
+      <c r="O23" s="20">
+        <v>0</v>
+      </c>
+      <c r="P23" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>0</v>
+      </c>
+      <c r="R23" s="20">
+        <v>0</v>
+      </c>
+      <c r="S23" s="12">
+        <v>1</v>
+      </c>
+      <c r="T23" s="34" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -1906,58 +1893,58 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="13" t="s">
+      <c r="B24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="21">
-        <v>1</v>
-      </c>
-      <c r="I24" s="13">
-        <v>0</v>
-      </c>
-      <c r="J24" s="13">
-        <v>0</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="M24" s="14" t="s">
+      <c r="E24" s="12"/>
+      <c r="F24" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="20">
+        <v>1</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="N24" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="N24" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="O24" s="21">
-        <v>0</v>
-      </c>
-      <c r="P24" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="13">
-        <v>0</v>
-      </c>
-      <c r="R24" s="21">
-        <v>0</v>
-      </c>
-      <c r="S24" s="13">
-        <v>1</v>
-      </c>
-      <c r="T24" s="35" t="s">
-        <v>87</v>
+      <c r="O24" s="20">
+        <v>0</v>
+      </c>
+      <c r="P24" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="12">
+        <v>0</v>
+      </c>
+      <c r="R24" s="20">
+        <v>0</v>
+      </c>
+      <c r="S24" s="12">
+        <v>1</v>
+      </c>
+      <c r="T24" s="34" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -1965,58 +1952,58 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="13" t="s">
+      <c r="B25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="21">
-        <v>1</v>
-      </c>
-      <c r="I25" s="13">
-        <v>0</v>
-      </c>
-      <c r="J25" s="13">
-        <v>0</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="M25" s="14" t="s">
+      <c r="E25" s="12"/>
+      <c r="F25" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="20">
+        <v>1</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="N25" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="N25" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="O25" s="21">
-        <v>0</v>
-      </c>
-      <c r="P25" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="13">
-        <v>0</v>
-      </c>
-      <c r="R25" s="21">
-        <v>0</v>
-      </c>
-      <c r="S25" s="13">
-        <v>1</v>
-      </c>
-      <c r="T25" s="35" t="s">
-        <v>88</v>
+      <c r="O25" s="20">
+        <v>0</v>
+      </c>
+      <c r="P25" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>0</v>
+      </c>
+      <c r="R25" s="20">
+        <v>0</v>
+      </c>
+      <c r="S25" s="12">
+        <v>1</v>
+      </c>
+      <c r="T25" s="34" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -2024,58 +2011,58 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="13" t="s">
+      <c r="B26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="21">
-        <v>1</v>
-      </c>
-      <c r="I26" s="13">
-        <v>0</v>
-      </c>
-      <c r="J26" s="13">
-        <v>0</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="M26" s="14" t="s">
+      <c r="E26" s="12"/>
+      <c r="F26" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="20">
+        <v>1</v>
+      </c>
+      <c r="I26" s="12">
+        <v>0</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="N26" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="N26" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="O26" s="21">
-        <v>0</v>
-      </c>
-      <c r="P26" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="13">
-        <v>0</v>
-      </c>
-      <c r="R26" s="21">
-        <v>0</v>
-      </c>
-      <c r="S26" s="13">
-        <v>1</v>
-      </c>
-      <c r="T26" s="35" t="s">
-        <v>89</v>
+      <c r="O26" s="20">
+        <v>0</v>
+      </c>
+      <c r="P26" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>0</v>
+      </c>
+      <c r="R26" s="20">
+        <v>0</v>
+      </c>
+      <c r="S26" s="12">
+        <v>1</v>
+      </c>
+      <c r="T26" s="34" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -2083,58 +2070,58 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B27" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="17" t="s">
+      <c r="B27" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="21">
-        <v>1</v>
-      </c>
-      <c r="I27" s="13">
-        <v>0</v>
-      </c>
-      <c r="J27" s="13">
-        <v>0</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M27" s="14" t="s">
+      <c r="E27" s="16"/>
+      <c r="F27" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="20">
+        <v>1</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="N27" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="N27" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="O27" s="22">
-        <v>0</v>
-      </c>
-      <c r="P27" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="17">
-        <v>0</v>
-      </c>
-      <c r="R27" s="22">
-        <v>0</v>
-      </c>
-      <c r="S27" s="17">
-        <v>1</v>
-      </c>
-      <c r="T27" s="36" t="s">
-        <v>90</v>
+      <c r="O27" s="21">
+        <v>0</v>
+      </c>
+      <c r="P27" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>0</v>
+      </c>
+      <c r="R27" s="21">
+        <v>0</v>
+      </c>
+      <c r="S27" s="16">
+        <v>1</v>
+      </c>
+      <c r="T27" s="35" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -2142,58 +2129,58 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="13" t="s">
+      <c r="C28" s="20"/>
+      <c r="D28" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="20">
-        <v>1</v>
-      </c>
-      <c r="I28" s="9">
-        <v>0</v>
-      </c>
-      <c r="J28" s="9">
-        <v>0</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="M28" s="10" t="s">
+      <c r="E28" s="14"/>
+      <c r="F28" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="19">
+        <v>1</v>
+      </c>
+      <c r="I28" s="8">
+        <v>0</v>
+      </c>
+      <c r="J28" s="8">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N28" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="N28" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O28" s="13">
-        <v>0</v>
-      </c>
-      <c r="P28" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="15">
-        <v>0</v>
-      </c>
-      <c r="R28" s="13">
-        <v>1</v>
-      </c>
-      <c r="S28" s="15">
-        <v>1</v>
-      </c>
-      <c r="T28" s="35" t="s">
-        <v>91</v>
+      <c r="O28" s="12">
+        <v>0</v>
+      </c>
+      <c r="P28" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>0</v>
+      </c>
+      <c r="R28" s="12">
+        <v>1</v>
+      </c>
+      <c r="S28" s="14">
+        <v>1</v>
+      </c>
+      <c r="T28" s="34" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -2201,58 +2188,58 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="17" t="s">
+      <c r="C29" s="21"/>
+      <c r="D29" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="21">
-        <v>1</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J29" s="13">
-        <v>0</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="M29" s="14" t="s">
+      <c r="E29" s="18"/>
+      <c r="F29" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="20">
+        <v>1</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="N29" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="N29" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="O29" s="17">
-        <v>0</v>
-      </c>
-      <c r="P29" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="19">
-        <v>1</v>
-      </c>
-      <c r="R29" s="17">
-        <v>0</v>
-      </c>
-      <c r="S29" s="19">
-        <v>0</v>
-      </c>
-      <c r="T29" s="36" t="s">
-        <v>92</v>
+      <c r="O29" s="16">
+        <v>0</v>
+      </c>
+      <c r="P29" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="18">
+        <v>1</v>
+      </c>
+      <c r="R29" s="16">
+        <v>0</v>
+      </c>
+      <c r="S29" s="18">
+        <v>0</v>
+      </c>
+      <c r="T29" s="35" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -2260,58 +2247,58 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="9" t="s">
+      <c r="B30" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="20">
-        <v>0</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J30" s="9">
-        <v>0</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M30" s="10" t="s">
+      <c r="E30" s="10"/>
+      <c r="F30" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="19">
+        <v>0</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J30" s="8">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N30" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="N30" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O30" s="9">
-        <v>1</v>
-      </c>
-      <c r="P30" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="11">
-        <v>0</v>
-      </c>
-      <c r="R30" s="20">
-        <v>0</v>
-      </c>
-      <c r="S30" s="11">
-        <v>0</v>
-      </c>
-      <c r="T30" s="47" t="s">
-        <v>93</v>
+      <c r="O30" s="8">
+        <v>1</v>
+      </c>
+      <c r="P30" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>0</v>
+      </c>
+      <c r="R30" s="19">
+        <v>0</v>
+      </c>
+      <c r="S30" s="10">
+        <v>0</v>
+      </c>
+      <c r="T30" s="44" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -2319,104 +2306,80 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B31" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="17" t="s">
+      <c r="B31" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="22">
-        <v>0</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J31" s="17">
-        <v>1</v>
-      </c>
-      <c r="K31" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L31" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="M31" s="18" t="s">
+      <c r="E31" s="18"/>
+      <c r="F31" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="21">
+        <v>0</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="J31" s="16">
+        <v>1</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="N31" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="N31" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="O31" s="17">
-        <v>1</v>
-      </c>
-      <c r="P31" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="19">
-        <v>0</v>
-      </c>
-      <c r="R31" s="22">
-        <v>0</v>
-      </c>
-      <c r="S31" s="19">
-        <v>0</v>
-      </c>
-      <c r="T31" s="36" t="s">
-        <v>94</v>
+      <c r="O31" s="16">
+        <v>1</v>
+      </c>
+      <c r="P31" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="18">
+        <v>0</v>
+      </c>
+      <c r="R31" s="21">
+        <v>0</v>
+      </c>
+      <c r="S31" s="18">
+        <v>0</v>
+      </c>
+      <c r="T31" s="35" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B32" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="4">
-        <v>0</v>
-      </c>
-      <c r="R32" s="2">
-        <v>0</v>
-      </c>
-      <c r="S32" s="4">
-        <v>0</v>
-      </c>
-      <c r="T32" s="42"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -2432,31 +2395,19 @@
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>102</v>
-      </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
+        <v>74</v>
+      </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
     </row>
   </sheetData>
   <mergeCells count="8">
